--- a/KholsApplication/src/test/resources/testdata/TestData.xlsx
+++ b/KholsApplication/src/test/resources/testdata/TestData.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADE5946-2528-4FA4-A618-28F095723AFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DF3154D4-2BB6-49EE-9CBA-9CCB35FD8D0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="3450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SearchProduct" sheetId="1" r:id="rId1"/>
-    <sheet name="CheckCart" sheetId="2" r:id="rId2"/>
+    <sheet name="SearchProductExcel" sheetId="1" r:id="rId1"/>
+    <sheet name="CheckCartExcel" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
     <t>hello@gmail.com</t>
   </si>
   <si>
@@ -45,6 +40,12 @@
   </si>
   <si>
     <t>Please validate captcha</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>tuxedos</t>
   </si>
 </sst>
 </file>
@@ -362,24 +363,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -388,7 +393,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,24 +403,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
